--- a/release-notes/2024-01/closed-bugs-sle-2024-01.xlsx
+++ b/release-notes/2024-01/closed-bugs-sle-2024-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nio365.sharepoint.com/sites/IoTProgram/Shared Documents/ProjectDocuments/SystemLink 2023/2024 Q1 (v.24.0)(releasing out of Cycle 23.C4)/Common/Release Notes for SLE/SLE 2024-01 Release Notes - December iteration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markblack/repos/github/install-systemlink-enterprise/release-notes/2024-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{0357FC32-4DB0-FA47-B55E-60093BEFF741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF370ACF-FD85-4FB6-AB0F-A9C1C31F315D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFD02CE-94AA-6D41-9F46-BC912C3B4FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23240" windowHeight="14000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="closed bugs in last iteration" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -71,31 +71,28 @@
     <t>Grafana dashboard does not display recent tag updates unless you specify a workspace</t>
   </si>
   <si>
-    <t>[Feeds Grid] Removing just the grouping won't make the view dirty</t>
-  </si>
-  <si>
     <t>Data space | Query Builder | Error toast is retained in the query builder</t>
   </si>
   <si>
-    <t>Data Spaces | Grouping looks weird when horizontal marginal plots are enabled</t>
-  </si>
-  <si>
     <t>Dataspace | Localization | Add X axis button and Y axis labels are not localized</t>
   </si>
   <si>
-    <t>Install software: Disbale the Install button after it is clicked to avoid duplicated jobs</t>
-  </si>
-  <si>
-    <t>Files-Analyze Files slide out: Disable the Analyze button after it is clicked to avoid duplicated jobs</t>
-  </si>
-  <si>
-    <t>[Systems Feeds Table] Removing just the grouping won't make the view dirty</t>
-  </si>
-  <si>
-    <t>Feeds warning is shown on the "Add feeds" dialog as well</t>
-  </si>
-  <si>
     <t>Error toast doesn't respect dark mode</t>
+  </si>
+  <si>
+    <t>Data Spaces | Grouping has visual artifacts when horizontal marginal plots are enabled</t>
+  </si>
+  <si>
+    <t>Install software: The install button is not disabled after it is clicked leading to duplicated jobs</t>
+  </si>
+  <si>
+    <t>Files-Analyze Files slide out: The Analyze button is not disabled after it is clicked leading to duplicated jobs</t>
+  </si>
+  <si>
+    <t>Removing grouping from feeds table does not mark the tables as changed</t>
+  </si>
+  <si>
+    <t>Feeds warning is  incorrectly shown on the "Add feeds" dialog</t>
   </si>
 </sst>
 </file>
@@ -640,9 +637,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -680,7 +677,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -786,7 +783,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -928,7 +925,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -936,18 +933,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="87.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -958,18 +955,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2599223</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2591100</v>
       </c>
@@ -980,7 +977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2594076</v>
       </c>
@@ -991,7 +988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2596863</v>
       </c>
@@ -1002,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2614117</v>
       </c>
@@ -1013,7 +1010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2557807</v>
       </c>
@@ -1024,7 +1021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2593215</v>
       </c>
@@ -1035,7 +1032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2565677</v>
       </c>
@@ -1046,51 +1043,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2594065</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2571304</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2580241</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2595414</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2587919</v>
       </c>
@@ -1101,7 +1098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2587928</v>
       </c>
@@ -1112,25 +1109,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2594248</v>
+        <v>2594296</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17">
-        <v>2594296</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1143,14 +1129,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="8f35f8fb-94b8-4296-88b5-253c68a5f93d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1397,27 +1381,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8f35f8fb-94b8-4296-88b5-253c68a5f93d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E6B2099-BF96-40FC-B6D0-611F0B5B8DEE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5BA7BF-C649-45A8-BA98-72C6A48D6AFB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="8f35f8fb-94b8-4296-88b5-253c68a5f93d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1442,9 +1419,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F5BA7BF-C649-45A8-BA98-72C6A48D6AFB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E6B2099-BF96-40FC-B6D0-611F0B5B8DEE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="8f35f8fb-94b8-4296-88b5-253c68a5f93d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="58dd0d8a-0b6e-4df8-afdb-fbe9bd3e42e9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>